--- a/CardFormatter/Data/Automatown/DataFile.xlsx
+++ b/CardFormatter/Data/Automatown/DataFile.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="automa" sheetId="2" r:id="rId1"/>
+    <sheet name="Cards.Datafile" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="106">
   <si>
     <t>image</t>
   </si>
@@ -84,18 +85,27 @@
     <t>{controller.2}</t>
   </si>
   <si>
+    <t>{cc}</t>
+  </si>
+  <si>
     <t>{sensor.2}</t>
   </si>
   <si>
     <t>{motor.2}</t>
   </si>
   <si>
+    <t>{shooty}</t>
+  </si>
+  <si>
     <t>{controller.3}</t>
   </si>
   <si>
     <t>{scrap.1}</t>
   </si>
   <si>
+    <t>{handy}</t>
+  </si>
+  <si>
     <t>{sensor.3}</t>
   </si>
   <si>
@@ -129,6 +139,9 @@
     <t>{collect}1{motor.2}</t>
   </si>
   <si>
+    <t>{tricky}</t>
+  </si>
+  <si>
     <t>Junk Collector</t>
   </si>
   <si>
@@ -279,6 +292,18 @@
     <t>{upgrade}x2, {collect}2{scrap.1}</t>
   </si>
   <si>
+    <t>{shooty}{handy}{tricky}</t>
+  </si>
+  <si>
+    <t>{handy}{tricky}</t>
+  </si>
+  <si>
+    <t>{shooty}{tricky}</t>
+  </si>
+  <si>
+    <t>{shooty}{handy}</t>
+  </si>
+  <si>
     <t>foo</t>
   </si>
   <si>
@@ -310,6 +335,9 @@
   </si>
   <si>
     <t>{downgrade}x2, {collect}2{scrap.1}, and {upgrade}x2</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1227,9 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,34 +1342,34 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1358,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -1368,14 +1396,14 @@
         <v>{cc}</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>IF(ISBLANK(H2), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3" t="str">
         <f>IF(ISBLANK(J2), "", "{cc}")</f>
@@ -1393,7 +1421,7 @@
         <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1444,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -1454,14 +1482,14 @@
         <v>{cc}</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(ISBLANK(H3), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="str">
         <f>IF(ISBLANK(J3), "", "{cc}")</f>
@@ -1479,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1530,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1540,14 +1568,14 @@
         <v>{cc}</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>IF(ISBLANK(H4), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3" t="str">
         <f>IF(ISBLANK(J4), "", "{cc}")</f>
@@ -1565,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q4">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1616,7 +1644,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1626,14 +1654,14 @@
         <v>{cc}</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="str">
         <f>IF(ISBLANK(H5), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>IF(ISBLANK(J5), "", "{cc}")</f>
@@ -1651,7 +1679,7 @@
         <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q5">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1702,17 +1730,17 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>IF(ISBLANK(F6), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>IF(ISBLANK(H6), "", "{cc}")</f>
@@ -1734,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q6">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1785,17 +1813,17 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IF(ISBLANK(F7), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>IF(ISBLANK(H7), "", "{cc}")</f>
@@ -1817,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q7">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1868,17 +1896,17 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IF(ISBLANK(F8), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>IF(ISBLANK(H8), "", "{cc}")</f>
@@ -1900,7 +1928,7 @@
         <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q8">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -1951,24 +1979,24 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="str">
         <f>IF(ISBLANK(F9), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(ISBLANK(H9), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>IF(ISBLANK(J9), "", "{cc}")</f>
@@ -1986,7 +2014,7 @@
         <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q9">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2037,24 +2065,24 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="str">
         <f>IF(ISBLANK(F10), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3" t="str">
         <f>IF(ISBLANK(H10), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3" t="str">
         <f>IF(ISBLANK(J10), "", "{cc}")</f>
@@ -2072,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q10">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2123,7 +2151,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -2133,14 +2161,14 @@
         <v>{cc}</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>IF(ISBLANK(H11), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K11" s="3" t="str">
         <f>IF(ISBLANK(J11), "", "{cc}")</f>
@@ -2158,7 +2186,7 @@
         <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2209,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -2219,14 +2247,14 @@
         <v>{cc}</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>IF(ISBLANK(H12), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="3" t="str">
         <f>IF(ISBLANK(J12), "", "{cc}")</f>
@@ -2244,7 +2272,7 @@
         <v>19</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q12">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2295,7 +2323,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -2312,14 +2340,14 @@
         <v>{cc}</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="str">
         <f>IF(ISBLANK(J13), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="3" t="str">
         <f>IF(ISBLANK(L13), "", "{cc}")</f>
@@ -2333,7 +2361,7 @@
         <v>19</v>
       </c>
       <c r="P13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q13">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2384,7 +2412,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -2394,21 +2422,21 @@
         <v>{cc}</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>IF(ISBLANK(H14), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3" t="str">
         <f>IF(ISBLANK(J14), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" s="3" t="str">
         <f>IF(ISBLANK(L14), "", "{cc}")</f>
@@ -2422,7 +2450,7 @@
         <v>19</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q14">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2473,7 +2501,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2483,21 +2511,21 @@
         <v>{cc}</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>IF(ISBLANK(H15), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="3" t="str">
         <f>IF(ISBLANK(J15), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" s="3" t="str">
         <f>IF(ISBLANK(L15), "", "{cc}")</f>
@@ -2511,7 +2539,7 @@
         <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q15">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2562,10 +2590,10 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" s="3" t="str">
         <f>IF(ISBLANK(F16), "", "{cc}")</f>
@@ -2579,14 +2607,14 @@
         <v>{cc}</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3" t="str">
         <f>IF(ISBLANK(J16), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" s="3" t="str">
         <f>IF(ISBLANK(L16), "", "{cc}")</f>
@@ -2600,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q16">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2651,7 +2679,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -2661,21 +2689,21 @@
         <v>{cc}</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>IF(ISBLANK(H17), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="3" t="str">
         <f>IF(ISBLANK(J17), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" s="3" t="str">
         <f>IF(ISBLANK(L17), "", "{cc}")</f>
@@ -2689,7 +2717,7 @@
         <v>19</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q17">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2740,7 +2768,7 @@
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2750,21 +2778,21 @@
         <v>{cc}</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>IF(ISBLANK(H18), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K18" s="3" t="str">
         <f>IF(ISBLANK(J18), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="3" t="str">
         <f>IF(ISBLANK(L18), "", "{cc}")</f>
@@ -2778,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q18">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2829,7 +2857,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2839,21 +2867,21 @@
         <v>{cc}</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>IF(ISBLANK(H19), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="3" t="str">
         <f>IF(ISBLANK(J19), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M19" s="3" t="str">
         <f>IF(ISBLANK(L19), "", "{cc}")</f>
@@ -2867,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -2918,7 +2946,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2928,14 +2956,14 @@
         <v>{cc}</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3" t="str">
         <f>IF(ISBLANK(H20), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3" t="str">
         <f>IF(ISBLANK(J20), "", "{cc}")</f>
@@ -2953,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q20">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3004,31 +3032,31 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" s="3" t="str">
         <f>IF(ISBLANK(F21), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I21" s="3" t="str">
         <f>IF(ISBLANK(H21), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K21" s="3" t="str">
         <f>IF(ISBLANK(J21), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M21" s="3" t="str">
         <f>IF(ISBLANK(L21), "", "{cc}")</f>
@@ -3042,7 +3070,7 @@
         <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q21">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3093,31 +3121,31 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>IF(ISBLANK(F22), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I22" s="3" t="str">
         <f>IF(ISBLANK(H22), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3" t="str">
         <f>IF(ISBLANK(J22), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M22" s="3" t="str">
         <f>IF(ISBLANK(L22), "", "{cc}")</f>
@@ -3131,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q22">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3182,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -3192,21 +3220,21 @@
         <v>{cc}</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>IF(ISBLANK(H23), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K23" s="3" t="str">
         <f>IF(ISBLANK(J23), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M23" s="3" t="str">
         <f>IF(ISBLANK(L23), "", "{cc}")</f>
@@ -3220,7 +3248,7 @@
         <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q23">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3271,31 +3299,31 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3" t="str">
         <f>IF(ISBLANK(F24), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>IF(ISBLANK(H24), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K24" s="3" t="str">
         <f>IF(ISBLANK(J24), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24" s="3" t="str">
         <f>IF(ISBLANK(L24), "", "{cc}")</f>
@@ -3306,10 +3334,10 @@
         <v>{shooty}{handy}</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q24">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3360,24 +3388,24 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3" t="str">
         <f>IF(ISBLANK(F25), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>IF(ISBLANK(H25), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K25" s="3" t="str">
         <f>IF(ISBLANK(J25), "", "{cc}")</f>
@@ -3392,10 +3420,10 @@
         <v>{shooty}{handy}</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q25">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3446,31 +3474,31 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(ISBLANK(F26), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I26" s="3" t="str">
         <f>IF(ISBLANK(H26), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K26" s="3" t="str">
         <f>IF(ISBLANK(J26), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M26" s="3" t="str">
         <f>IF(ISBLANK(L26), "", "{cc}")</f>
@@ -3484,7 +3512,7 @@
         <v>19</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q26">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3535,24 +3563,24 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>IF(ISBLANK(F27), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I27" s="3" t="str">
         <f>IF(ISBLANK(H27), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K27" s="3" t="str">
         <f>IF(ISBLANK(J27), "", "{cc}")</f>
@@ -3570,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="P27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q27">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3621,24 +3649,24 @@
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>IF(ISBLANK(F28), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>IF(ISBLANK(H28), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K28" s="3" t="str">
         <f>IF(ISBLANK(J28), "", "{cc}")</f>
@@ -3656,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="P28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q28">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3707,10 +3735,10 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(ISBLANK(F29), "", "{cc}")</f>
@@ -3724,14 +3752,14 @@
         <v>{cc}</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K29" s="3" t="str">
         <f>IF(ISBLANK(J29), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M29" s="3" t="str">
         <f>IF(ISBLANK(L29), "", "{cc}")</f>
@@ -3745,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="P29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q29">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3796,31 +3824,31 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" s="3" t="str">
         <f>IF(ISBLANK(F30), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I30" s="3" t="str">
         <f>IF(ISBLANK(H30), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30" s="3" t="str">
         <f>IF(ISBLANK(J30), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M30" s="3" t="str">
         <f>IF(ISBLANK(L30), "", "{cc}")</f>
@@ -3834,7 +3862,7 @@
         <v>19</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q30">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3885,31 +3913,31 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G31" s="3" t="str">
         <f>IF(ISBLANK(F31), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I31" s="3" t="str">
         <f>IF(ISBLANK(H31), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K31" s="3" t="str">
         <f>IF(ISBLANK(J31), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" s="3" t="str">
         <f>IF(ISBLANK(L31), "", "{cc}")</f>
@@ -3923,7 +3951,7 @@
         <v>19</v>
       </c>
       <c r="P31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q31">
         <f>Table1[[#This Row],[Workers value]]+Table1[[#This Row],[Ability Value]]+Table1[[#This Row],[Icon Value]]-Table1[[#This Row],[total cost]]</f>
@@ -3974,24 +4002,24 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3" t="str">
         <f>IF(ISBLANK(F32), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>IF(ISBLANK(H32), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K32" s="3" t="str">
         <f>IF(ISBLANK(J32), "", "{cc}")</f>
@@ -4057,24 +4085,24 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G33" s="3" t="str">
         <f>IF(ISBLANK(F33), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I33" s="3" t="str">
         <f>IF(ISBLANK(H33), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K33" s="3" t="str">
         <f>IF(ISBLANK(J33), "", "{cc}")</f>
@@ -4140,24 +4168,24 @@
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G34" s="3" t="str">
         <f>IF(ISBLANK(F34), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I34" s="3" t="str">
         <f>IF(ISBLANK(H34), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K34" s="3" t="str">
         <f>IF(ISBLANK(J34), "", "{cc}")</f>
@@ -4223,24 +4251,24 @@
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3" t="str">
         <f>IF(ISBLANK(F35), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I35" s="3" t="str">
         <f>IF(ISBLANK(H35), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K35" s="3" t="str">
         <f>IF(ISBLANK(J35), "", "{cc}")</f>
@@ -4306,24 +4334,24 @@
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>IF(ISBLANK(F36), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3" t="str">
         <f>IF(ISBLANK(H36), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K36" s="3" t="str">
         <f>IF(ISBLANK(J36), "", "{cc}")</f>
@@ -4389,24 +4417,24 @@
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G37" s="3" t="str">
         <f>IF(ISBLANK(F37), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3" t="str">
         <f>IF(ISBLANK(H37), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K37" s="3" t="str">
         <f>IF(ISBLANK(J37), "", "{cc}")</f>
@@ -4472,24 +4500,24 @@
         <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G38" s="3" t="str">
         <f>IF(ISBLANK(F38), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I38" s="3" t="str">
         <f>IF(ISBLANK(H38), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K38" s="3" t="str">
         <f>IF(ISBLANK(J38), "", "{cc}")</f>
@@ -4555,24 +4583,24 @@
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G39" s="3" t="str">
         <f>IF(ISBLANK(F39), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I39" s="3" t="str">
         <f>IF(ISBLANK(H39), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K39" s="3" t="str">
         <f>IF(ISBLANK(J39), "", "{cc}")</f>
@@ -4638,24 +4666,24 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G40" s="3" t="str">
         <f>IF(ISBLANK(F40), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I40" s="3" t="str">
         <f>IF(ISBLANK(H40), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K40" s="3" t="str">
         <f>IF(ISBLANK(J40), "", "{cc}")</f>
@@ -4721,24 +4749,24 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G41" s="3" t="str">
         <f>IF(ISBLANK(F41), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I41" s="3" t="str">
         <f>IF(ISBLANK(H41), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K41" s="3" t="str">
         <f>IF(ISBLANK(J41), "", "{cc}")</f>
@@ -4804,24 +4832,24 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G42" s="3" t="str">
         <f>IF(ISBLANK(F42), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I42" s="3" t="str">
         <f>IF(ISBLANK(H42), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K42" s="3" t="str">
         <f>IF(ISBLANK(J42), "", "{cc}")</f>
@@ -4887,24 +4915,24 @@
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G43" s="3" t="str">
         <f>IF(ISBLANK(F43), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I43" s="3" t="str">
         <f>IF(ISBLANK(H43), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K43" s="3" t="str">
         <f>IF(ISBLANK(J43), "", "{cc}")</f>
@@ -4970,24 +4998,24 @@
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G44" s="3" t="str">
         <f>IF(ISBLANK(F44), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I44" s="3" t="str">
         <f>IF(ISBLANK(H44), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K44" s="3" t="str">
         <f>IF(ISBLANK(J44), "", "{cc}")</f>
@@ -5053,24 +5081,24 @@
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G45" s="3" t="str">
         <f>IF(ISBLANK(F45), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I45" s="3" t="str">
         <f>IF(ISBLANK(H45), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K45" s="3" t="str">
         <f>IF(ISBLANK(J45), "", "{cc}")</f>
@@ -5136,24 +5164,24 @@
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G46" s="3" t="str">
         <f>IF(ISBLANK(F46), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I46" s="3" t="str">
         <f>IF(ISBLANK(H46), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K46" s="3" t="str">
         <f>IF(ISBLANK(J46), "", "{cc}")</f>
@@ -5219,24 +5247,24 @@
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G47" s="3" t="str">
         <f>IF(ISBLANK(F47), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I47" s="3" t="str">
         <f>IF(ISBLANK(H47), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K47" s="3" t="str">
         <f>IF(ISBLANK(J47), "", "{cc}")</f>
@@ -5302,24 +5330,24 @@
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G48" s="3" t="str">
         <f>IF(ISBLANK(F48), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I48" s="3" t="str">
         <f>IF(ISBLANK(H48), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K48" s="3" t="str">
         <f>IF(ISBLANK(J48), "", "{cc}")</f>
@@ -5385,24 +5413,24 @@
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G49" s="3" t="str">
         <f>IF(ISBLANK(F49), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I49" s="3" t="str">
         <f>IF(ISBLANK(H49), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K49" s="3" t="str">
         <f>IF(ISBLANK(J49), "", "{cc}")</f>
@@ -5468,24 +5496,24 @@
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G50" s="3" t="str">
         <f>IF(ISBLANK(F50), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I50" s="3" t="str">
         <f>IF(ISBLANK(H50), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K50" s="3" t="str">
         <f>IF(ISBLANK(J50), "", "{cc}")</f>
@@ -5551,24 +5579,24 @@
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G51" s="3" t="str">
         <f>IF(ISBLANK(F51), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I51" s="3" t="str">
         <f>IF(ISBLANK(H51), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K51" s="3" t="str">
         <f>IF(ISBLANK(J51), "", "{cc}")</f>
@@ -5634,24 +5662,24 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G52" s="3" t="str">
         <f>IF(ISBLANK(F52), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3" t="str">
         <f>IF(ISBLANK(H52), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K52" s="3" t="str">
         <f>IF(ISBLANK(J52), "", "{cc}")</f>
@@ -5717,24 +5745,24 @@
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G53" s="3" t="str">
         <f>IF(ISBLANK(F53), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I53" s="3" t="str">
         <f>IF(ISBLANK(H53), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K53" s="3" t="str">
         <f>IF(ISBLANK(J53), "", "{cc}")</f>
@@ -5800,24 +5828,24 @@
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G54" s="3" t="str">
         <f>IF(ISBLANK(F54), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I54" s="3" t="str">
         <f>IF(ISBLANK(H54), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K54" s="3" t="str">
         <f>IF(ISBLANK(J54), "", "{cc}")</f>
@@ -5883,24 +5911,24 @@
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G55" s="3" t="str">
         <f>IF(ISBLANK(F55), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I55" s="3" t="str">
         <f>IF(ISBLANK(H55), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K55" s="3" t="str">
         <f>IF(ISBLANK(J55), "", "{cc}")</f>
@@ -5966,24 +5994,24 @@
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G56" s="3" t="str">
         <f>IF(ISBLANK(F56), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I56" s="3" t="str">
         <f>IF(ISBLANK(H56), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K56" s="3" t="str">
         <f>IF(ISBLANK(J56), "", "{cc}")</f>
@@ -6049,24 +6077,24 @@
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G57" s="3" t="str">
         <f>IF(ISBLANK(F57), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I57" s="3" t="str">
         <f>IF(ISBLANK(H57), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J57" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K57" s="3" t="str">
         <f>IF(ISBLANK(J57), "", "{cc}")</f>
@@ -6132,24 +6160,24 @@
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G58" s="3" t="str">
         <f>IF(ISBLANK(F58), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I58" s="3" t="str">
         <f>IF(ISBLANK(H58), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K58" s="3" t="str">
         <f>IF(ISBLANK(J58), "", "{cc}")</f>
@@ -6215,24 +6243,24 @@
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G59" s="3" t="str">
         <f>IF(ISBLANK(F59), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I59" s="3" t="str">
         <f>IF(ISBLANK(H59), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K59" s="3" t="str">
         <f>IF(ISBLANK(J59), "", "{cc}")</f>
@@ -6298,24 +6326,24 @@
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G60" s="3" t="str">
         <f>IF(ISBLANK(F60), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I60" s="3" t="str">
         <f>IF(ISBLANK(H60), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K60" s="3" t="str">
         <f>IF(ISBLANK(J60), "", "{cc}")</f>
@@ -6381,24 +6409,24 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G61" s="3" t="str">
         <f>IF(ISBLANK(F61), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I61" s="3" t="str">
         <f>IF(ISBLANK(H61), "", "{cc}")</f>
         <v>{cc}</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K61" s="3" t="str">
         <f>IF(ISBLANK(J61), "", "{cc}")</f>
@@ -6477,4 +6505,2853 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="95.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" t="s">
+        <v>93</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" t="s">
+        <v>105</v>
+      </c>
+      <c r="O36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>105</v>
+      </c>
+      <c r="N37" t="s">
+        <v>105</v>
+      </c>
+      <c r="O37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>105</v>
+      </c>
+      <c r="N39" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>105</v>
+      </c>
+      <c r="N40" t="s">
+        <v>105</v>
+      </c>
+      <c r="O40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>105</v>
+      </c>
+      <c r="N41" t="s">
+        <v>105</v>
+      </c>
+      <c r="O41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>105</v>
+      </c>
+      <c r="N42" t="s">
+        <v>105</v>
+      </c>
+      <c r="O42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>105</v>
+      </c>
+      <c r="N43" t="s">
+        <v>105</v>
+      </c>
+      <c r="O43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N46" t="s">
+        <v>105</v>
+      </c>
+      <c r="O46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>105</v>
+      </c>
+      <c r="N47" t="s">
+        <v>105</v>
+      </c>
+      <c r="O47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>105</v>
+      </c>
+      <c r="N48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>105</v>
+      </c>
+      <c r="N49" t="s">
+        <v>105</v>
+      </c>
+      <c r="O49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N50" t="s">
+        <v>105</v>
+      </c>
+      <c r="O50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N52" t="s">
+        <v>105</v>
+      </c>
+      <c r="O52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>105</v>
+      </c>
+      <c r="N53" t="s">
+        <v>105</v>
+      </c>
+      <c r="O53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>105</v>
+      </c>
+      <c r="N54" t="s">
+        <v>105</v>
+      </c>
+      <c r="O54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>105</v>
+      </c>
+      <c r="N55" t="s">
+        <v>105</v>
+      </c>
+      <c r="O55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" t="s">
+        <v>105</v>
+      </c>
+      <c r="O56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>105</v>
+      </c>
+      <c r="N57" t="s">
+        <v>105</v>
+      </c>
+      <c r="O57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>105</v>
+      </c>
+      <c r="N58" t="s">
+        <v>105</v>
+      </c>
+      <c r="O58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>105</v>
+      </c>
+      <c r="N59" t="s">
+        <v>105</v>
+      </c>
+      <c r="O59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" t="s">
+        <v>105</v>
+      </c>
+      <c r="N60" t="s">
+        <v>105</v>
+      </c>
+      <c r="O60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" t="s">
+        <v>105</v>
+      </c>
+      <c r="O61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>